--- a/medicine/Enfance/Danièle_Bour/Danièle_Bour.xlsx
+++ b/medicine/Enfance/Danièle_Bour/Danièle_Bour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dani%C3%A8le_Bour</t>
+          <t>Danièle_Bour</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Danièle Bour, née le 16 août 1939 à Chaumont (Haute-Marne), est une illustratrice française. Elle est notamment la co-créatrice, avec Claude Lebrun, de la série de récits Petit Ours Brun destinée aux plus jeunes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dani%C3%A8le_Bour</t>
+          <t>Danièle_Bour</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômée de l'école des beaux-arts de Nancy, Danièle Bour se consacre à l'illustration de livres pour enfants à partir de 1972.
-En 1973, sur un texte de Jean-Claude Brisville, elle illustre Un Hiver dans la vie de gros ours, qui est publié chez Grasset. Elle reçoit l'Aiglon d'or au Festival du livre de Nice. Ce livre lui vaut en 1974 la médaille de bronze à la foire du livre de Leipzig[réf. souhaitée], et l'ouvrage figure dans la « Honor List » 1974[1], de l' Union internationale pour les livres de jeunesse (IBBY).
+En 1973, sur un texte de Jean-Claude Brisville, elle illustre Un Hiver dans la vie de gros ours, qui est publié chez Grasset. Elle reçoit l'Aiglon d'or au Festival du livre de Nice. Ce livre lui vaut en 1974 la médaille de bronze à la foire du livre de Leipzig[réf. souhaitée], et l'ouvrage figure dans la « Honor List » 1974, de l' Union internationale pour les livres de jeunesse (IBBY).
 Danièle Bour se fait connaître du grand public à travers l'illustration du personnage de Petit Ours Brun, créé en 1975 par Claude Lebrun pour Pomme d'Api, une publication de Bayard Presse.
-Ses trois enfants, Martin[2], Céline[3] et Laura[4], sont également devenus illustrateurs.
+Ses trois enfants, Martin, Céline et Laura, sont également devenus illustrateurs.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dani%C3%A8le_Bour</t>
+          <t>Danièle_Bour</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1974 : (international) « Honor List »[1], de l' IBBY, catégorie Illustration, pour Un hiver dans la vie de gros ours (texte de Jean-Claude Brisville)</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1974 : (international) « Honor List », de l' IBBY, catégorie Illustration, pour Un hiver dans la vie de gros ours (texte de Jean-Claude Brisville)</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dani%C3%A8le_Bour</t>
+          <t>Danièle_Bour</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur 2021[5]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur 2021</t>
         </is>
       </c>
     </row>
